--- a/Group 12 Plan.xlsx
+++ b/Group 12 Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccdd44787473a730/Desktop/Louisiana Tech/First Year/Thired Quarter (2020-Freshman)/Computer Sci 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccdd44787473a730/Desktop/Louisiana Tech/First Year/Thired Quarter (2020-Freshman)/Computer Sci 3/GitHub/Team Project/2020CompSci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{B1870092-A533-47C2-9F0F-86D8E6F9D14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB2ED456-3D28-47A2-94C0-61DE9AD59B01}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{B1870092-A533-47C2-9F0F-86D8E6F9D14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2048FA32-C125-41E6-B2AE-41B1F1E70049}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" xr2:uid="{15D89691-9E01-481F-A18B-41883EF0F508}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15D89691-9E01-481F-A18B-41883EF0F508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Group 12 Plan</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
   </si>
   <si>
     <t>All</t>
@@ -141,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -212,11 +212,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +536,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,9 +567,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -580,13 +582,13 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -595,9 +597,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -610,9 +612,9 @@
       <c r="F7" s="9"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -623,11 +625,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -636,13 +638,13 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -652,12 +654,12 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="13"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -667,12 +669,12 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -695,15 +697,11 @@
         <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
@@ -728,119 +726,115 @@
         <v>43948</v>
       </c>
       <c r="H13" s="3">
-        <v>43955</v>
-      </c>
-      <c r="I13" s="3">
-        <v>43962</v>
-      </c>
-      <c r="J13" s="3">
-        <v>43964</v>
-      </c>
+        <v>43952</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Group 12 Plan.xlsx
+++ b/Group 12 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccdd44787473a730/Desktop/Louisiana Tech/First Year/Thired Quarter (2020-Freshman)/Computer Sci 3/GitHub/Team Project/2020CompSci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{B1870092-A533-47C2-9F0F-86D8E6F9D14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2048FA32-C125-41E6-B2AE-41B1F1E70049}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{B1870092-A533-47C2-9F0F-86D8E6F9D14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63AA99E2-0043-4999-826A-E7A42B8A8CD5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15D89691-9E01-481F-A18B-41883EF0F508}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Group 12 Plan</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Due</t>
-  </si>
-  <si>
-    <t>3D engine</t>
   </si>
   <si>
     <t>Main Job</t>
@@ -536,7 +533,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +585,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="15"/>
@@ -603,14 +600,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -618,29 +615,29 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -648,56 +645,68 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
+      <c r="B12" s="3">
+        <v>43913</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43920</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43927</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43934</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43941</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43948</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43952</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -706,28 +715,6 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
-        <v>43913</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43920</v>
-      </c>
-      <c r="D13" s="3">
-        <v>43927</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43934</v>
-      </c>
-      <c r="F13" s="3">
-        <v>43941</v>
-      </c>
-      <c r="G13" s="3">
-        <v>43948</v>
-      </c>
-      <c r="H13" s="3">
-        <v>43952</v>
-      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
@@ -736,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -744,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -784,7 +771,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -793,7 +780,7 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
